--- a/library/export_phone.xlsx
+++ b/library/export_phone.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>GROUP</t>
   </si>
@@ -44,15 +44,6 @@
     <t>OFFICE ADDRESS</t>
   </si>
   <si>
-    <t>Office :</t>
-  </si>
-  <si>
-    <t>Month :</t>
-  </si>
-  <si>
-    <t>Year :</t>
-  </si>
-  <si>
     <t xml:space="preserve">DILG IV - A </t>
   </si>
   <si>
@@ -63,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,12 +70,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -122,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -131,17 +116,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -426,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F300"/>
+  <dimension ref="A2:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -444,32 +420,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>9</v>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>10</v>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -477,43 +453,41 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="10" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="8" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -2818,22 +2792,6 @@
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
-      <c r="B299" s="3"/>
-      <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
-      <c r="F299" s="3"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A300" s="3"/>
-      <c r="B300" s="3"/>
-      <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
-      <c r="F300" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/library/export_phone.xlsx
+++ b/library/export_phone.xlsx
@@ -404,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2799,5 +2799,6 @@
     <mergeCell ref="B4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>